--- a/data_model.xlsx
+++ b/data_model.xlsx
@@ -144,10 +144,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
